--- a/artfynd/A 773-2024 artfynd.xlsx
+++ b/artfynd/A 773-2024 artfynd.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131067035</v>
+        <v>131067810</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>58043</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,37 +822,50 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466172</v>
+        <v>466532</v>
       </c>
       <c r="R3" t="n">
-        <v>7046340</v>
+        <v>7046605</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -889,7 +902,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Två födosökande talltitor i äldre barrskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -898,33 +911,12 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -942,10 +934,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131067798</v>
+        <v>131067035</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -953,31 +945,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -985,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466279</v>
+        <v>466172</v>
       </c>
       <c r="R4" t="n">
-        <v>7046403</v>
+        <v>7046340</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1025,7 +1012,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1034,12 +1021,13 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1052,9 +1040,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1072,7 +1065,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067788</v>
+        <v>131067787</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1115,10 +1108,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466325</v>
+        <v>466335</v>
       </c>
       <c r="R5" t="n">
-        <v>7046442</v>
+        <v>7046445</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1202,7 +1195,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067787</v>
+        <v>131067798</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1245,10 +1238,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466335</v>
+        <v>466279</v>
       </c>
       <c r="R6" t="n">
-        <v>7046445</v>
+        <v>7046403</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1299,7 +1292,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1332,10 +1325,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131067810</v>
+        <v>131067788</v>
       </c>
       <c r="B7" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1343,50 +1336,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466532</v>
+        <v>466325</v>
       </c>
       <c r="R7" t="n">
-        <v>7046605</v>
+        <v>7046442</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1423,7 +1408,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Två födosökande talltitor i äldre barrskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1438,6 +1423,21 @@
       <c r="AH7" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131067000</v>
+        <v>131067801</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466110</v>
+        <v>466250</v>
       </c>
       <c r="R8" t="n">
-        <v>7046316</v>
+        <v>7046376</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en stående död gran med full längd.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1565,14 +1565,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1590,7 +1585,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131067801</v>
+        <v>131067000</v>
       </c>
       <c r="B9" t="n">
         <v>57884</v>
@@ -1633,10 +1628,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466250</v>
+        <v>466110</v>
       </c>
       <c r="R9" t="n">
-        <v>7046376</v>
+        <v>7046316</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1673,7 +1668,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en stående död gran med full längd.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1700,9 +1695,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131067030</v>
+        <v>131067786</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1731,26 +1731,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1758,10 +1763,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466302</v>
+        <v>466366</v>
       </c>
       <c r="R10" t="n">
-        <v>7046517</v>
+        <v>7046466</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1796,13 +1801,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1821,14 +1830,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -2111,10 +2115,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131067786</v>
+        <v>131067030</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2122,31 +2126,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2154,10 +2153,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466366</v>
+        <v>466302</v>
       </c>
       <c r="R13" t="n">
-        <v>7046466</v>
+        <v>7046517</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2192,17 +2191,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2221,9 +2216,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131067803</v>
+        <v>131067782</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466227</v>
+        <v>466553</v>
       </c>
       <c r="R23" t="n">
-        <v>7046368</v>
+        <v>7046611</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -3525,14 +3525,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3550,7 +3545,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131067782</v>
+        <v>131067803</v>
       </c>
       <c r="B24" t="n">
         <v>57884</v>
@@ -3593,10 +3588,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466553</v>
+        <v>466227</v>
       </c>
       <c r="R24" t="n">
-        <v>7046611</v>
+        <v>7046368</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3647,7 +3642,7 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -3660,9 +3655,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -5303,57 +5303,48 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131067006</v>
+        <v>131067032</v>
       </c>
       <c r="B38" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>466180</v>
+        <v>466239</v>
       </c>
       <c r="R38" t="n">
-        <v>7046368</v>
+        <v>7046392</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5388,23 +5379,39 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Färsk spillning ovanpå snötäcket under en tall i barrblandskog.</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5422,10 +5429,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131067032</v>
+        <v>131067790</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5433,26 +5440,31 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5460,10 +5472,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>466239</v>
+        <v>466313</v>
       </c>
       <c r="R39" t="n">
-        <v>7046392</v>
+        <v>7046432</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5498,19 +5510,23 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -5523,14 +5539,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5548,7 +5559,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131067790</v>
+        <v>131067789</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -5591,10 +5602,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>466313</v>
+        <v>466317</v>
       </c>
       <c r="R40" t="n">
-        <v>7046432</v>
+        <v>7046435</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5678,32 +5689,32 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131067789</v>
+        <v>131067006</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>57073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>100138</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5711,20 +5722,24 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>466317</v>
+        <v>466180</v>
       </c>
       <c r="R41" t="n">
-        <v>7046435</v>
+        <v>7046368</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5761,7 +5776,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Färsk spillning ovanpå snötäcket under en tall i barrblandskog.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5776,21 +5791,6 @@
       <c r="AH41" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>

--- a/artfynd/A 773-2024 artfynd.xlsx
+++ b/artfynd/A 773-2024 artfynd.xlsx
@@ -1720,10 +1720,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131067786</v>
+        <v>131067030</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1731,31 +1731,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1763,10 +1758,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466366</v>
+        <v>466302</v>
       </c>
       <c r="R10" t="n">
-        <v>7046466</v>
+        <v>7046517</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1801,17 +1796,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1830,9 +1821,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1850,7 +1846,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131067792</v>
+        <v>131067786</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1883,7 +1879,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1893,10 +1889,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466356</v>
+        <v>466366</v>
       </c>
       <c r="R11" t="n">
-        <v>7046460</v>
+        <v>7046466</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1933,7 +1929,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1960,14 +1956,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1985,7 +1976,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131067781</v>
+        <v>131067792</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -2018,7 +2009,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2028,10 +2019,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466204</v>
+        <v>466356</v>
       </c>
       <c r="R12" t="n">
-        <v>7046448</v>
+        <v>7046460</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2068,7 +2059,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2082,7 +2073,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2095,9 +2086,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2115,10 +2111,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131067030</v>
+        <v>131067781</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2126,26 +2122,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2153,10 +2154,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466302</v>
+        <v>466204</v>
       </c>
       <c r="R13" t="n">
-        <v>7046517</v>
+        <v>7046448</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2191,19 +2192,23 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -2216,14 +2221,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>

--- a/artfynd/A 773-2024 artfynd.xlsx
+++ b/artfynd/A 773-2024 artfynd.xlsx
@@ -2241,7 +2241,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131067800</v>
+        <v>131067795</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466272</v>
+        <v>466291</v>
       </c>
       <c r="R14" t="n">
-        <v>7046391</v>
+        <v>7046411</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2351,14 +2351,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2376,7 +2371,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131067795</v>
+        <v>131067799</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2419,10 +2414,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466291</v>
+        <v>466278</v>
       </c>
       <c r="R15" t="n">
-        <v>7046411</v>
+        <v>7046398</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2506,7 +2501,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131067799</v>
+        <v>131067800</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2549,10 +2544,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466278</v>
+        <v>466272</v>
       </c>
       <c r="R16" t="n">
-        <v>7046398</v>
+        <v>7046391</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2616,9 +2611,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -4443,10 +4443,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131067033</v>
+        <v>131067804</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4454,26 +4454,31 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4481,10 +4486,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466193</v>
+        <v>466158</v>
       </c>
       <c r="R31" t="n">
-        <v>7046386</v>
+        <v>7046307</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4521,7 +4526,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På gran i granskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4530,13 +4535,32 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4554,7 +4578,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131067804</v>
+        <v>131067784</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4597,10 +4621,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466158</v>
+        <v>466379</v>
       </c>
       <c r="R32" t="n">
-        <v>7046307</v>
+        <v>7046479</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4651,7 +4675,7 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -4664,14 +4688,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4689,7 +4708,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131067784</v>
+        <v>131067793</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4732,10 +4751,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466379</v>
+        <v>466303</v>
       </c>
       <c r="R33" t="n">
-        <v>7046479</v>
+        <v>7046416</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4786,7 +4805,7 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -4819,10 +4838,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131067793</v>
+        <v>131067033</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4830,31 +4849,26 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4862,10 +4876,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466303</v>
+        <v>466193</v>
       </c>
       <c r="R34" t="n">
-        <v>7046416</v>
+        <v>7046386</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4902,7 +4916,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På gran i granskog.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4911,27 +4925,13 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131067031</v>
+        <v>131067032</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -5210,10 +5210,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>466288</v>
+        <v>466239</v>
       </c>
       <c r="R37" t="n">
-        <v>7046458</v>
+        <v>7046392</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5246,11 +5246,6 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>På flera gamla granar i granskog.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5303,10 +5298,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131067032</v>
+        <v>131067790</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5314,26 +5309,31 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5341,10 +5341,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>466239</v>
+        <v>466313</v>
       </c>
       <c r="R38" t="n">
-        <v>7046392</v>
+        <v>7046432</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5379,19 +5379,23 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -5404,14 +5408,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5429,10 +5428,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131067790</v>
+        <v>131067031</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5440,31 +5439,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5472,10 +5466,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>466313</v>
+        <v>466288</v>
       </c>
       <c r="R39" t="n">
-        <v>7046432</v>
+        <v>7046458</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5512,7 +5506,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På flera gamla granar i granskog.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5521,12 +5515,13 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -5539,9 +5534,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>

--- a/artfynd/A 773-2024 artfynd.xlsx
+++ b/artfynd/A 773-2024 artfynd.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131067810</v>
+        <v>131067035</v>
       </c>
       <c r="B3" t="n">
-        <v>58043</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,50 +822,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466532</v>
+        <v>466172</v>
       </c>
       <c r="R3" t="n">
-        <v>7046605</v>
+        <v>7046340</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,7 +889,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Två födosökande talltitor i äldre barrskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,12 +898,33 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -934,10 +942,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131067035</v>
+        <v>131067787</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -945,26 +953,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -972,10 +985,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466172</v>
+        <v>466335</v>
       </c>
       <c r="R4" t="n">
-        <v>7046340</v>
+        <v>7046445</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1012,7 +1025,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,7 +1034,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1040,14 +1052,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1065,7 +1072,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067787</v>
+        <v>131067798</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1108,10 +1115,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466335</v>
+        <v>466279</v>
       </c>
       <c r="R5" t="n">
-        <v>7046445</v>
+        <v>7046403</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1162,7 +1169,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1195,7 +1202,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067798</v>
+        <v>131067788</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1238,10 +1245,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466279</v>
+        <v>466325</v>
       </c>
       <c r="R6" t="n">
-        <v>7046403</v>
+        <v>7046442</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1292,7 +1299,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1325,10 +1332,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131067788</v>
+        <v>131067810</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1336,42 +1343,50 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466325</v>
+        <v>466532</v>
       </c>
       <c r="R7" t="n">
-        <v>7046442</v>
+        <v>7046605</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1408,7 +1423,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Två födosökande talltitor i äldre barrskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1423,21 +1438,6 @@
       <c r="AH7" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131067030</v>
+        <v>131067786</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1731,26 +1731,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1758,10 +1763,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466302</v>
+        <v>466366</v>
       </c>
       <c r="R10" t="n">
-        <v>7046517</v>
+        <v>7046466</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1796,13 +1801,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1821,14 +1830,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1846,7 +1850,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131067786</v>
+        <v>131067792</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1879,7 +1883,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1889,10 +1893,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466366</v>
+        <v>466356</v>
       </c>
       <c r="R11" t="n">
-        <v>7046466</v>
+        <v>7046460</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1929,7 +1933,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1956,9 +1960,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1976,7 +1985,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131067792</v>
+        <v>131067781</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -2009,7 +2018,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2019,10 +2028,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466356</v>
+        <v>466204</v>
       </c>
       <c r="R12" t="n">
-        <v>7046460</v>
+        <v>7046448</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2059,7 +2068,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2073,7 +2082,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2086,14 +2095,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2111,10 +2115,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131067781</v>
+        <v>131067030</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2122,31 +2126,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2154,10 +2153,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466204</v>
+        <v>466302</v>
       </c>
       <c r="R13" t="n">
-        <v>7046448</v>
+        <v>7046517</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2192,23 +2191,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -2221,9 +2216,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131067795</v>
+        <v>131067800</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466291</v>
+        <v>466272</v>
       </c>
       <c r="R14" t="n">
-        <v>7046411</v>
+        <v>7046391</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2351,9 +2351,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2371,7 +2376,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131067799</v>
+        <v>131067795</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2414,10 +2419,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466278</v>
+        <v>466291</v>
       </c>
       <c r="R15" t="n">
-        <v>7046398</v>
+        <v>7046411</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2501,7 +2506,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131067800</v>
+        <v>131067799</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2544,10 +2549,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466272</v>
+        <v>466278</v>
       </c>
       <c r="R16" t="n">
-        <v>7046391</v>
+        <v>7046398</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2611,14 +2616,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -4443,10 +4443,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131067804</v>
+        <v>131067033</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4454,31 +4454,26 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4486,10 +4481,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466158</v>
+        <v>466193</v>
       </c>
       <c r="R31" t="n">
-        <v>7046307</v>
+        <v>7046386</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4526,7 +4521,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På gran i granskog.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4535,32 +4530,13 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4578,7 +4554,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131067784</v>
+        <v>131067804</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4621,10 +4597,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466379</v>
+        <v>466158</v>
       </c>
       <c r="R32" t="n">
-        <v>7046479</v>
+        <v>7046307</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4675,7 +4651,7 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -4688,9 +4664,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4708,7 +4689,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131067793</v>
+        <v>131067784</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4751,10 +4732,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466303</v>
+        <v>466379</v>
       </c>
       <c r="R33" t="n">
-        <v>7046416</v>
+        <v>7046479</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4805,7 +4786,7 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -4838,10 +4819,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131067033</v>
+        <v>131067793</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4849,26 +4830,31 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4876,10 +4862,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466193</v>
+        <v>466303</v>
       </c>
       <c r="R34" t="n">
-        <v>7046386</v>
+        <v>7046416</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4916,7 +4902,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>På gran i granskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4925,13 +4911,27 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131067032</v>
+        <v>131067031</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -5210,10 +5210,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>466239</v>
+        <v>466288</v>
       </c>
       <c r="R37" t="n">
-        <v>7046392</v>
+        <v>7046458</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5246,6 +5246,11 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>På flera gamla granar i granskog.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5298,10 +5303,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131067790</v>
+        <v>131067032</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5309,31 +5314,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5341,10 +5341,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>466313</v>
+        <v>466239</v>
       </c>
       <c r="R38" t="n">
-        <v>7046432</v>
+        <v>7046392</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5379,23 +5379,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -5408,9 +5404,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5428,48 +5429,57 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131067031</v>
+        <v>131067006</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>466288</v>
+        <v>466180</v>
       </c>
       <c r="R39" t="n">
-        <v>7046458</v>
+        <v>7046368</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5506,7 +5516,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>På flera gamla granar i granskog.</t>
+          <t>Färsk spillning ovanpå snötäcket under en tall i barrblandskog.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5515,33 +5525,12 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5559,7 +5548,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131067789</v>
+        <v>131067790</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -5602,10 +5591,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>466317</v>
+        <v>466313</v>
       </c>
       <c r="R40" t="n">
-        <v>7046435</v>
+        <v>7046432</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5689,32 +5678,32 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131067006</v>
+        <v>131067789</v>
       </c>
       <c r="B41" t="n">
-        <v>57073</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100138</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5722,24 +5711,20 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>466180</v>
+        <v>466317</v>
       </c>
       <c r="R41" t="n">
-        <v>7046368</v>
+        <v>7046435</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5776,7 +5761,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Färsk spillning ovanpå snötäcket under en tall i barrblandskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5791,6 +5776,21 @@
       <c r="AH41" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>

--- a/artfynd/A 773-2024 artfynd.xlsx
+++ b/artfynd/A 773-2024 artfynd.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131067035</v>
+        <v>131067787</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,26 +822,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -849,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466172</v>
+        <v>466335</v>
       </c>
       <c r="R3" t="n">
-        <v>7046340</v>
+        <v>7046445</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -889,7 +894,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -898,7 +903,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -917,14 +921,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -942,7 +941,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131067787</v>
+        <v>131067798</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -985,10 +984,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466335</v>
+        <v>466279</v>
       </c>
       <c r="R4" t="n">
-        <v>7046445</v>
+        <v>7046403</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1039,7 +1038,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1072,7 +1071,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067798</v>
+        <v>131067788</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1115,10 +1114,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466279</v>
+        <v>466325</v>
       </c>
       <c r="R5" t="n">
-        <v>7046403</v>
+        <v>7046442</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1169,7 +1168,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1202,10 +1201,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067788</v>
+        <v>131067810</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1213,42 +1212,50 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466325</v>
+        <v>466532</v>
       </c>
       <c r="R6" t="n">
-        <v>7046442</v>
+        <v>7046605</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1285,7 +1292,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Två födosökande talltitor i äldre barrskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1300,21 +1307,6 @@
       <c r="AH6" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1332,10 +1324,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131067810</v>
+        <v>131067035</v>
       </c>
       <c r="B7" t="n">
-        <v>58043</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1343,50 +1335,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466532</v>
+        <v>466172</v>
       </c>
       <c r="R7" t="n">
-        <v>7046605</v>
+        <v>7046340</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1423,7 +1402,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Två födosökande talltitor i äldre barrskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1432,12 +1411,33 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131067801</v>
+        <v>131067000</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466250</v>
+        <v>466110</v>
       </c>
       <c r="R8" t="n">
-        <v>7046376</v>
+        <v>7046316</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en stående död gran med full längd.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1565,9 +1565,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1585,7 +1590,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131067000</v>
+        <v>131067801</v>
       </c>
       <c r="B9" t="n">
         <v>57884</v>
@@ -1628,10 +1633,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466110</v>
+        <v>466250</v>
       </c>
       <c r="R9" t="n">
-        <v>7046316</v>
+        <v>7046376</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1668,7 +1673,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en stående död gran med full längd.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1695,14 +1700,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131067786</v>
+        <v>131067030</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1731,31 +1731,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1763,10 +1758,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466366</v>
+        <v>466302</v>
       </c>
       <c r="R10" t="n">
-        <v>7046466</v>
+        <v>7046517</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1801,17 +1796,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1830,9 +1821,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1850,7 +1846,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131067792</v>
+        <v>131067786</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1883,7 +1879,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1893,10 +1889,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466356</v>
+        <v>466366</v>
       </c>
       <c r="R11" t="n">
-        <v>7046460</v>
+        <v>7046466</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1933,7 +1929,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1960,14 +1956,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1985,7 +1976,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131067781</v>
+        <v>131067792</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -2018,7 +2009,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2028,10 +2019,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466204</v>
+        <v>466356</v>
       </c>
       <c r="R12" t="n">
-        <v>7046448</v>
+        <v>7046460</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2068,7 +2059,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2082,7 +2073,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2095,9 +2086,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2115,10 +2111,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131067030</v>
+        <v>131067781</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2126,26 +2122,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2153,10 +2154,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466302</v>
+        <v>466204</v>
       </c>
       <c r="R13" t="n">
-        <v>7046517</v>
+        <v>7046448</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2191,19 +2192,23 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -2216,14 +2221,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -4443,10 +4443,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131067033</v>
+        <v>131067804</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4454,26 +4454,31 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4481,10 +4486,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466193</v>
+        <v>466158</v>
       </c>
       <c r="R31" t="n">
-        <v>7046386</v>
+        <v>7046307</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4521,7 +4526,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På gran i granskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4530,13 +4535,32 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4554,7 +4578,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131067804</v>
+        <v>131067784</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4597,10 +4621,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466158</v>
+        <v>466379</v>
       </c>
       <c r="R32" t="n">
-        <v>7046307</v>
+        <v>7046479</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4651,7 +4675,7 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -4664,14 +4688,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4689,7 +4708,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131067784</v>
+        <v>131067793</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4732,10 +4751,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466379</v>
+        <v>466303</v>
       </c>
       <c r="R33" t="n">
-        <v>7046479</v>
+        <v>7046416</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4786,7 +4805,7 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -4819,10 +4838,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131067793</v>
+        <v>131067033</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4830,31 +4849,26 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4862,10 +4876,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466303</v>
+        <v>466193</v>
       </c>
       <c r="R34" t="n">
-        <v>7046416</v>
+        <v>7046386</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4902,7 +4916,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På gran i granskog.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4911,27 +4925,13 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5429,32 +5429,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131067006</v>
+        <v>131067790</v>
       </c>
       <c r="B39" t="n">
-        <v>57073</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100138</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5462,24 +5462,20 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>466180</v>
+        <v>466313</v>
       </c>
       <c r="R39" t="n">
-        <v>7046368</v>
+        <v>7046432</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5516,7 +5512,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Färsk spillning ovanpå snötäcket under en tall i barrblandskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5531,6 +5527,21 @@
       <c r="AH39" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5548,7 +5559,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131067790</v>
+        <v>131067789</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -5591,10 +5602,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>466313</v>
+        <v>466317</v>
       </c>
       <c r="R40" t="n">
-        <v>7046432</v>
+        <v>7046435</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5678,32 +5689,32 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131067789</v>
+        <v>131067006</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>57073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>100138</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5711,20 +5722,24 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>466317</v>
+        <v>466180</v>
       </c>
       <c r="R41" t="n">
-        <v>7046435</v>
+        <v>7046368</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5761,7 +5776,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Färsk spillning ovanpå snötäcket under en tall i barrblandskog.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5776,21 +5791,6 @@
       <c r="AH41" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>

--- a/artfynd/A 773-2024 artfynd.xlsx
+++ b/artfynd/A 773-2024 artfynd.xlsx
@@ -1455,7 +1455,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131067000</v>
+        <v>131067801</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466110</v>
+        <v>466250</v>
       </c>
       <c r="R8" t="n">
-        <v>7046316</v>
+        <v>7046376</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en stående död gran med full längd.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1565,14 +1565,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1590,7 +1585,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131067801</v>
+        <v>131067000</v>
       </c>
       <c r="B9" t="n">
         <v>57884</v>
@@ -1633,10 +1628,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466250</v>
+        <v>466110</v>
       </c>
       <c r="R9" t="n">
-        <v>7046376</v>
+        <v>7046316</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1673,7 +1668,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en stående död gran med full längd.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1700,9 +1695,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131067030</v>
+        <v>131067786</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1731,26 +1731,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1758,10 +1763,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466302</v>
+        <v>466366</v>
       </c>
       <c r="R10" t="n">
-        <v>7046517</v>
+        <v>7046466</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1796,13 +1801,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1821,14 +1830,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1846,7 +1850,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131067786</v>
+        <v>131067792</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1879,7 +1883,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1889,10 +1893,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466366</v>
+        <v>466356</v>
       </c>
       <c r="R11" t="n">
-        <v>7046466</v>
+        <v>7046460</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1929,7 +1933,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1956,9 +1960,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1976,7 +1985,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131067792</v>
+        <v>131067781</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -2009,7 +2018,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2019,10 +2028,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466356</v>
+        <v>466204</v>
       </c>
       <c r="R12" t="n">
-        <v>7046460</v>
+        <v>7046448</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2059,7 +2068,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2073,7 +2082,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2086,14 +2095,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2111,10 +2115,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131067781</v>
+        <v>131067030</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2122,31 +2126,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2154,10 +2153,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466204</v>
+        <v>466302</v>
       </c>
       <c r="R13" t="n">
-        <v>7046448</v>
+        <v>7046517</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2192,23 +2191,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -2221,9 +2216,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -4443,10 +4443,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131067804</v>
+        <v>131067033</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4454,31 +4454,26 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4486,10 +4481,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466158</v>
+        <v>466193</v>
       </c>
       <c r="R31" t="n">
-        <v>7046307</v>
+        <v>7046386</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4526,7 +4521,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På gran i granskog.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4535,32 +4530,13 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4578,7 +4554,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131067784</v>
+        <v>131067804</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4621,10 +4597,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466379</v>
+        <v>466158</v>
       </c>
       <c r="R32" t="n">
-        <v>7046479</v>
+        <v>7046307</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4675,7 +4651,7 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -4688,9 +4664,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4708,7 +4689,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131067793</v>
+        <v>131067784</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4751,10 +4732,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466303</v>
+        <v>466379</v>
       </c>
       <c r="R33" t="n">
-        <v>7046416</v>
+        <v>7046479</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4805,7 +4786,7 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -4838,10 +4819,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131067033</v>
+        <v>131067793</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4849,26 +4830,31 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4876,10 +4862,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466193</v>
+        <v>466303</v>
       </c>
       <c r="R34" t="n">
-        <v>7046386</v>
+        <v>7046416</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4916,7 +4902,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>På gran i granskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4925,13 +4911,27 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>

--- a/artfynd/A 773-2024 artfynd.xlsx
+++ b/artfynd/A 773-2024 artfynd.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131067787</v>
+        <v>131067035</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,31 +822,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -854,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466335</v>
+        <v>466172</v>
       </c>
       <c r="R3" t="n">
-        <v>7046445</v>
+        <v>7046340</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,7 +889,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -903,6 +898,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -921,9 +917,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -941,7 +942,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131067798</v>
+        <v>131067787</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -984,10 +985,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466279</v>
+        <v>466335</v>
       </c>
       <c r="R4" t="n">
-        <v>7046403</v>
+        <v>7046445</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1038,7 +1039,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1071,7 +1072,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067788</v>
+        <v>131067798</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1114,10 +1115,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466325</v>
+        <v>466279</v>
       </c>
       <c r="R5" t="n">
-        <v>7046442</v>
+        <v>7046403</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1168,7 +1169,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1201,10 +1202,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067810</v>
+        <v>131067788</v>
       </c>
       <c r="B6" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1212,50 +1213,42 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466532</v>
+        <v>466325</v>
       </c>
       <c r="R6" t="n">
-        <v>7046605</v>
+        <v>7046442</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1292,7 +1285,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Två födosökande talltitor i äldre barrskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1307,6 +1300,21 @@
       <c r="AH6" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1324,10 +1332,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131067035</v>
+        <v>131067810</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>58043</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,37 +1343,50 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466172</v>
+        <v>466532</v>
       </c>
       <c r="R7" t="n">
-        <v>7046340</v>
+        <v>7046605</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1402,7 +1423,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Två födosökande talltitor i äldre barrskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1411,33 +1432,12 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131067786</v>
+        <v>131067030</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1731,31 +1731,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1763,10 +1758,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466366</v>
+        <v>466302</v>
       </c>
       <c r="R10" t="n">
-        <v>7046466</v>
+        <v>7046517</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1801,17 +1796,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1830,9 +1821,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1850,7 +1846,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131067792</v>
+        <v>131067786</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1883,7 +1879,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1893,10 +1889,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466356</v>
+        <v>466366</v>
       </c>
       <c r="R11" t="n">
-        <v>7046460</v>
+        <v>7046466</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1933,7 +1929,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1960,14 +1956,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1985,7 +1976,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131067781</v>
+        <v>131067792</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -2018,7 +2009,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2028,10 +2019,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466204</v>
+        <v>466356</v>
       </c>
       <c r="R12" t="n">
-        <v>7046448</v>
+        <v>7046460</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2068,7 +2059,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2082,7 +2073,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2095,9 +2086,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2115,10 +2111,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131067030</v>
+        <v>131067781</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2126,26 +2122,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2153,10 +2154,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466302</v>
+        <v>466204</v>
       </c>
       <c r="R13" t="n">
-        <v>7046517</v>
+        <v>7046448</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2191,19 +2192,23 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -2216,14 +2221,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -3931,10 +3931,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131067038</v>
+        <v>131067797</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3942,26 +3942,31 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3969,10 +3974,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466024</v>
+        <v>466283</v>
       </c>
       <c r="R27" t="n">
-        <v>7046276</v>
+        <v>7046407</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4009,7 +4014,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Enstaka bålar på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4018,7 +4023,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -4037,14 +4041,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4062,10 +4061,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131067797</v>
+        <v>131067038</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4073,31 +4072,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -4105,10 +4099,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466283</v>
+        <v>466024</v>
       </c>
       <c r="R28" t="n">
-        <v>7046407</v>
+        <v>7046276</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4145,7 +4139,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Enstaka bålar på gran.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4154,6 +4148,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -4172,9 +4167,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -5172,10 +5172,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131067031</v>
+        <v>131067790</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5183,26 +5183,31 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5210,10 +5215,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>466288</v>
+        <v>466313</v>
       </c>
       <c r="R37" t="n">
-        <v>7046458</v>
+        <v>7046432</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5250,7 +5255,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>På flera gamla granar i granskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5259,13 +5264,12 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -5278,14 +5282,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5303,10 +5302,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131067032</v>
+        <v>131067789</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5314,26 +5313,31 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5341,10 +5345,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>466239</v>
+        <v>466317</v>
       </c>
       <c r="R38" t="n">
-        <v>7046392</v>
+        <v>7046435</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5379,19 +5383,23 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -5404,14 +5412,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5429,10 +5432,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131067790</v>
+        <v>131067031</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5440,31 +5443,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5472,10 +5470,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>466313</v>
+        <v>466288</v>
       </c>
       <c r="R39" t="n">
-        <v>7046432</v>
+        <v>7046458</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5512,7 +5510,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På flera gamla granar i granskog.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5521,12 +5519,13 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -5539,9 +5538,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5559,10 +5563,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131067789</v>
+        <v>131067032</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5570,31 +5574,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5602,10 +5601,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>466317</v>
+        <v>466239</v>
       </c>
       <c r="R40" t="n">
-        <v>7046435</v>
+        <v>7046392</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5640,23 +5639,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
@@ -5669,9 +5664,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>

--- a/artfynd/A 773-2024 artfynd.xlsx
+++ b/artfynd/A 773-2024 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131067036</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131067035</v>
+        <v>131067787</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,26 +822,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -849,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466172</v>
+        <v>466335</v>
       </c>
       <c r="R3" t="n">
-        <v>7046340</v>
+        <v>7046445</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -889,7 +894,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -898,7 +903,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -917,14 +921,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -942,7 +941,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131067787</v>
+        <v>131067798</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -985,10 +984,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466335</v>
+        <v>466279</v>
       </c>
       <c r="R4" t="n">
-        <v>7046445</v>
+        <v>7046403</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1039,7 +1038,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1072,7 +1071,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067798</v>
+        <v>131067788</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1115,10 +1114,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466279</v>
+        <v>466325</v>
       </c>
       <c r="R5" t="n">
-        <v>7046403</v>
+        <v>7046442</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1169,7 +1168,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1202,10 +1201,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067788</v>
+        <v>131067035</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1213,31 +1212,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1245,10 +1239,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466325</v>
+        <v>466172</v>
       </c>
       <c r="R6" t="n">
-        <v>7046442</v>
+        <v>7046340</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1285,7 +1279,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1294,6 +1288,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1312,9 +1307,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131067030</v>
+        <v>131067786</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1731,26 +1731,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1758,10 +1763,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466302</v>
+        <v>466366</v>
       </c>
       <c r="R10" t="n">
-        <v>7046517</v>
+        <v>7046466</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1796,13 +1801,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1821,14 +1830,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1846,7 +1850,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131067786</v>
+        <v>131067792</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1879,7 +1883,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1889,10 +1893,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466366</v>
+        <v>466356</v>
       </c>
       <c r="R11" t="n">
-        <v>7046466</v>
+        <v>7046460</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1929,7 +1933,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1956,9 +1960,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1976,7 +1985,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131067792</v>
+        <v>131067781</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -2009,7 +2018,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2019,10 +2028,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466356</v>
+        <v>466204</v>
       </c>
       <c r="R12" t="n">
-        <v>7046460</v>
+        <v>7046448</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2059,7 +2068,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2073,7 +2082,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2086,14 +2095,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2111,10 +2115,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131067781</v>
+        <v>131067030</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2122,31 +2126,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2154,10 +2153,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466204</v>
+        <v>466302</v>
       </c>
       <c r="R13" t="n">
-        <v>7046448</v>
+        <v>7046517</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2192,23 +2191,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -2221,9 +2216,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -3818,7 +3818,7 @@
         <v>131067453</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3931,10 +3931,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131067797</v>
+        <v>131067038</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3942,31 +3942,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3974,10 +3969,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466283</v>
+        <v>466024</v>
       </c>
       <c r="R27" t="n">
-        <v>7046407</v>
+        <v>7046276</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4014,7 +4009,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Enstaka bålar på gran.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4023,6 +4018,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -4041,9 +4037,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4061,10 +4062,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131067038</v>
+        <v>131067797</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4072,26 +4073,31 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -4099,10 +4105,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466024</v>
+        <v>466283</v>
       </c>
       <c r="R28" t="n">
-        <v>7046276</v>
+        <v>7046407</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4139,7 +4145,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Enstaka bålar på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4148,7 +4154,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -4167,14 +4172,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4330,7 +4330,7 @@
         <v>131067452</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>131067033</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>131067037</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>131067451</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>131067031</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>131067032</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>

--- a/artfynd/A 773-2024 artfynd.xlsx
+++ b/artfynd/A 773-2024 artfynd.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131067787</v>
+        <v>131067035</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,31 +822,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -854,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466335</v>
+        <v>466172</v>
       </c>
       <c r="R3" t="n">
-        <v>7046445</v>
+        <v>7046340</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,7 +889,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -903,6 +898,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -921,9 +917,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -941,7 +942,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131067798</v>
+        <v>131067787</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -984,10 +985,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466279</v>
+        <v>466335</v>
       </c>
       <c r="R4" t="n">
-        <v>7046403</v>
+        <v>7046445</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1038,7 +1039,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1201,10 +1202,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067035</v>
+        <v>131067810</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>58043</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1212,37 +1213,50 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466172</v>
+        <v>466532</v>
       </c>
       <c r="R6" t="n">
-        <v>7046340</v>
+        <v>7046605</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1279,7 +1293,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Två födosökande talltitor i äldre barrskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1288,33 +1302,12 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1332,10 +1325,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131067810</v>
+        <v>131067798</v>
       </c>
       <c r="B7" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1343,50 +1336,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466532</v>
+        <v>466279</v>
       </c>
       <c r="R7" t="n">
-        <v>7046605</v>
+        <v>7046403</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1423,7 +1408,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Två födosökande talltitor i äldre barrskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1437,7 +1422,22 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131067786</v>
+        <v>131067030</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1731,31 +1731,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1763,10 +1758,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466366</v>
+        <v>466302</v>
       </c>
       <c r="R10" t="n">
-        <v>7046466</v>
+        <v>7046517</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1801,17 +1796,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1830,9 +1821,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1850,7 +1846,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131067792</v>
+        <v>131067786</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1883,7 +1879,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1893,10 +1889,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466356</v>
+        <v>466366</v>
       </c>
       <c r="R11" t="n">
-        <v>7046460</v>
+        <v>7046466</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1933,7 +1929,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1960,14 +1956,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1985,7 +1976,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131067781</v>
+        <v>131067792</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -2018,7 +2009,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2028,10 +2019,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466204</v>
+        <v>466356</v>
       </c>
       <c r="R12" t="n">
-        <v>7046448</v>
+        <v>7046460</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2068,7 +2059,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2082,7 +2073,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2095,9 +2086,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2115,10 +2111,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131067030</v>
+        <v>131067781</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2126,26 +2122,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2153,10 +2154,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466302</v>
+        <v>466204</v>
       </c>
       <c r="R13" t="n">
-        <v>7046517</v>
+        <v>7046448</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2191,19 +2192,23 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -2216,14 +2221,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131067782</v>
+        <v>131067803</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466553</v>
+        <v>466227</v>
       </c>
       <c r="R23" t="n">
-        <v>7046611</v>
+        <v>7046368</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -3525,9 +3525,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3545,7 +3550,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131067803</v>
+        <v>131067782</v>
       </c>
       <c r="B24" t="n">
         <v>57884</v>
@@ -3588,10 +3593,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466227</v>
+        <v>466553</v>
       </c>
       <c r="R24" t="n">
-        <v>7046368</v>
+        <v>7046611</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3642,7 +3647,7 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -3655,14 +3660,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -5172,10 +5172,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131067790</v>
+        <v>131067031</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5183,31 +5183,26 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5215,10 +5210,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>466313</v>
+        <v>466288</v>
       </c>
       <c r="R37" t="n">
-        <v>7046432</v>
+        <v>7046458</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5255,7 +5250,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På flera gamla granar i granskog.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5264,12 +5259,13 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -5282,9 +5278,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5302,10 +5303,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131067789</v>
+        <v>131067032</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5313,31 +5314,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5345,10 +5341,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>466317</v>
+        <v>466239</v>
       </c>
       <c r="R38" t="n">
-        <v>7046435</v>
+        <v>7046392</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5383,23 +5379,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -5412,9 +5404,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5432,10 +5429,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131067031</v>
+        <v>131067790</v>
       </c>
       <c r="B39" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5443,26 +5440,31 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5470,10 +5472,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>466288</v>
+        <v>466313</v>
       </c>
       <c r="R39" t="n">
-        <v>7046458</v>
+        <v>7046432</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5510,7 +5512,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>På flera gamla granar i granskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5519,13 +5521,12 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -5538,14 +5539,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5563,10 +5559,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131067032</v>
+        <v>131067789</v>
       </c>
       <c r="B40" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5574,26 +5570,31 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5601,10 +5602,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>466239</v>
+        <v>466317</v>
       </c>
       <c r="R40" t="n">
-        <v>7046392</v>
+        <v>7046435</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5639,19 +5640,23 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
@@ -5664,14 +5669,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
